--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H2">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.216304333333333</v>
+        <v>1.508375333333333</v>
       </c>
       <c r="N2">
-        <v>3.648913</v>
+        <v>4.525126</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>9.649940862191</v>
+        <v>5.095636791159555</v>
       </c>
       <c r="R2">
-        <v>86.849467759719</v>
+        <v>45.86073112043599</v>
       </c>
       <c r="S2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="T2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>34.745824</v>
       </c>
       <c r="I3">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J3">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.216304333333333</v>
+        <v>1.508375333333333</v>
       </c>
       <c r="N3">
-        <v>3.648913</v>
+        <v>4.525126</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>14.08716543214578</v>
+        <v>17.46991461931378</v>
       </c>
       <c r="R3">
-        <v>126.784488889312</v>
+        <v>157.229231573824</v>
       </c>
       <c r="S3">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="T3">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H4">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I4">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J4">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.216304333333333</v>
+        <v>1.508375333333333</v>
       </c>
       <c r="N4">
-        <v>3.648913</v>
+        <v>4.525126</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.792545930773889</v>
+        <v>3.199459165209778</v>
       </c>
       <c r="R4">
-        <v>7.132913376965001</v>
+        <v>28.795132486888</v>
       </c>
       <c r="S4">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="T4">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
     </row>
   </sheetData>
